--- a/ExcelCake.Example/Template/复杂格式测试模板.xlsx
+++ b/ExcelCake.Example/Template/复杂格式测试模板.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EB5BC1-FBF6-4CEA-B792-C0C91D9D5422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5067C919-73E8-4E15-A379-DA789AFEEEE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5110" yWindow="1370" windowWidth="23150" windowHeight="11260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -293,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,18 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -344,6 +332,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,111 +1241,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="14"/>
+      <c r="J3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1355,13 +1358,13 @@
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1379,81 +1382,73 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="I8:K8"/>
@@ -1470,6 +1465,14 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="A3:B4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1486,105 +1489,105 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="3:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="3:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="3:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="12" spans="3:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="4:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+    <row r="4" spans="3:10" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:10" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="3:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="3:10" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="3:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="3:10" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="3:10" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="12" spans="3:10" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="3:10" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="3:10" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="3:10" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="3:10" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="4:9" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="4:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1597,222 +1600,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7C0BD6-F879-4A12-9702-FDDBCF34711E}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
-    </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="4:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="4:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
+    <row r="1" spans="1:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="4:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="4:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="4:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="4:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="4:14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="4:14" ht="14.1" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="4:14" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
